--- a/xcelFile/data.xlsx
+++ b/xcelFile/data.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>row0/cell0</t>
   </si>
@@ -59,16 +59,79 @@
     <t>row 5</t>
   </si>
   <si>
-    <t>Misbah</t>
-  </si>
-  <si>
-    <t>ul</t>
-  </si>
-  <si>
     <t>A</t>
   </si>
   <si>
     <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Y</t>
   </si>
 </sst>
 </file>
@@ -389,7 +452,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -422,36 +485,99 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
+      <c r="F2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
